--- a/Otway Precast/36956/zres_siteapp_NEW.xlsx
+++ b/Otway Precast/36956/zres_siteapp_NEW.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Otway Precast\36956\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B761041D-836A-4900-A83E-EAA14ED25D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEEE101-49CB-4CF5-811A-4E61E79E2FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="3210" windowWidth="26775" windowHeight="17700" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
+    <workbookView xWindow="11595" yWindow="3240" windowWidth="26775" windowHeight="17700" xr2:uid="{484357A6-E8EE-4CFD-B5D3-FC42F38F2F05}"/>
   </bookViews>
   <sheets>
     <sheet name="zres_siteapp_NEW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zres_siteapp_NEW!$A$1:$G$53</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -43,16 +46,13 @@
     <t>Postfix</t>
   </si>
   <si>
-    <t>e90f1869-561d-401c-b451-543bfb3da2be</t>
-  </si>
-  <si>
     <t>checklist</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1f5ad4e3-2440-49d1-8cc6-8da58cf41420</t>
+    <t>3b4c79d6-a607-4331-b4be-fd7bc444b2e7</t>
   </si>
   <si>
     <t>section</t>
@@ -61,7 +61,7 @@
     <t>Product Detail</t>
   </si>
   <si>
-    <t>d90bfa34-8b4c-4a15-bb28-723c46deeef4</t>
+    <t>57c29981-cbcc-473a-8dfa-f73880f835a1</t>
   </si>
   <si>
     <t>checkpoint</t>
@@ -70,7 +70,7 @@
     <t>Details</t>
   </si>
   <si>
-    <t>ce8b5be3-ea75-58b1-a3e7-2967a0383f77</t>
+    <t>7233ee70-ab58-5cbb-b2c6-c0fbe21720d5</t>
   </si>
   <si>
     <t>textbox</t>
@@ -79,217 +79,190 @@
     <t>Product ID</t>
   </si>
   <si>
-    <t>57ba2d73-fb61-53ed-8da5-4f1f3c774daa</t>
+    <t>00431790-c665-59a3-8cb9-315b438d38bf</t>
   </si>
   <si>
     <t>Weight</t>
   </si>
   <si>
-    <t>b5306076-958a-5cc4-8f8e-67426ad1dc5f</t>
+    <t>1b04ade1-e485-551e-8f0f-da7cb090dcdc</t>
   </si>
   <si>
     <t>Manufacture Date</t>
   </si>
   <si>
-    <t>42c9fa11-750c-4886-a6b6-88596bff77de</t>
+    <t>d864ac16-f363-4f78-98aa-9acdd772aef8</t>
   </si>
   <si>
     <t>Formwork</t>
   </si>
   <si>
-    <t>3f0cdcab-4b3f-476d-b56b-b16ee107e388</t>
+    <t>6da9b84d-61dc-4b4b-92c1-d3734743f0ee</t>
   </si>
   <si>
     <t>Check Length</t>
   </si>
   <si>
-    <t>aa821181-55ff-5434-9c60-590f582ffa1a</t>
+    <t>dd84890b-3959-51ee-ae5d-dc0a1b676a39</t>
   </si>
   <si>
     <t>length</t>
   </si>
   <si>
-    <t>52ec7df5-ba4b-4cfb-a76e-660dcfff8f63</t>
+    <t>9abc2ea3-b8cd-4533-b99e-d4640b033bfd</t>
   </si>
   <si>
     <t>Check Width</t>
   </si>
   <si>
-    <t>24e33343-a8e9-549c-b3fa-c26f874bb8c4</t>
+    <t>50e0b2c0-6701-53ba-9122-7bda59d59e52</t>
   </si>
   <si>
     <t>width</t>
   </si>
   <si>
-    <t>478266b9-d083-4b39-8262-306e351e2909</t>
+    <t>786405f2-55d4-47e3-ac70-1350f0ab87c6</t>
   </si>
   <si>
     <t>Check Thickness</t>
   </si>
   <si>
-    <t>0570df06-5d73-5fa2-a207-7cd5401af655</t>
+    <t>97ece5af-4211-505f-8bb8-e3a010263e54</t>
   </si>
   <si>
     <t>thickness</t>
   </si>
   <si>
-    <t>dcc56b68-3340-44ea-92f1-17fa5704ae43</t>
+    <t>c091e3b8-c064-4db3-a4d2-e2c81f5e4f07</t>
   </si>
   <si>
     <t>Check Diagnonal</t>
   </si>
   <si>
-    <t>5320e261-0158-45f1-80f6-3ac8bfd372dd</t>
+    <t>d8886378-6d11-49cb-91af-64e46f085a76</t>
   </si>
   <si>
     <t>Sideform Trueness</t>
   </si>
   <si>
-    <t>826c421c-3819-4e01-a290-04d4799f9553</t>
+    <t>55f91b35-757a-4a2f-b9c1-17005a27daee</t>
   </si>
   <si>
     <t>Magnets / Forms Secure</t>
   </si>
   <si>
-    <t>fbfd6b1e-be95-4fed-ace9-bd78d0e8e3f9</t>
+    <t>6470a893-ee96-4ddc-8787-b79162978e75</t>
   </si>
   <si>
     <t>Splayed forms checked</t>
   </si>
   <si>
-    <t>809900d9-8079-4836-8656-f6783a846e5c</t>
+    <t>b195679c-a956-4b7f-ba2d-68b5d8d41040</t>
   </si>
   <si>
     <t>Penotration dimensions checked</t>
   </si>
   <si>
-    <t>344dceb0-c2d3-4e2c-afd4-2f75ec739272</t>
-  </si>
-  <si>
-    <t>Curves / Radius Checked</t>
-  </si>
-  <si>
-    <t>26a843b1-0618-4e73-9fb7-82c2d06c617c</t>
+    <t>f435282e-8a0b-4fd4-8713-f63ff861ffa9</t>
   </si>
   <si>
     <t>Rebates size and location checked</t>
   </si>
   <si>
-    <t>f2115ccc-c889-4060-9566-a6369573178a</t>
-  </si>
-  <si>
-    <t>Weather steps dimensions checked</t>
-  </si>
-  <si>
-    <t>b8c4f4f1-454e-4936-a39c-ed94b5d75f1e</t>
-  </si>
-  <si>
-    <t>Weather steps orientation checked</t>
-  </si>
-  <si>
-    <t>26681f59-631d-4176-aa8e-8dcb2fcc9401</t>
+    <t>2215c343-4161-488a-b478-8c58c78634db</t>
   </si>
   <si>
     <t>Form release applied correctly</t>
   </si>
   <si>
-    <t>67e25267-f2b1-4a07-855d-ecbd0989ca8f</t>
+    <t>0fad1d38-b744-4b4e-b072-da2574f70a4c</t>
   </si>
   <si>
     <t>Reinforcement</t>
   </si>
   <si>
-    <t>2f21ec73-92fc-4e82-836f-b3989297918d</t>
+    <t>e73ec773-a5ac-4e13-848c-192be0f61d5e</t>
   </si>
   <si>
     <t>Reinforcement mat as per shop drawings</t>
   </si>
   <si>
-    <t>1e0aeba2-4fe3-4650-8304-d891167a56a9</t>
-  </si>
-  <si>
-    <t>Reo Mat Orientation</t>
-  </si>
-  <si>
-    <t>0c210185-a25b-4466-84b2-1a5e37dcaa5d</t>
-  </si>
-  <si>
-    <t>Perimeter Bars Size Correct</t>
-  </si>
-  <si>
-    <t>9a489e36-4f9d-4f76-b76d-f289d5e9e5b8</t>
-  </si>
-  <si>
-    <t>Perimeter Bars No. Off Correct</t>
-  </si>
-  <si>
-    <t>947f18c1-05a0-4f0e-9d2e-8b6895718245</t>
+    <t>5673881c-138d-431f-888f-5e4f062a1689</t>
   </si>
   <si>
     <t>Additional Bars Correct</t>
   </si>
   <si>
-    <t>0921695a-8f0a-471f-b834-4beb5804a7a0</t>
-  </si>
-  <si>
-    <t>Reo Changes Noted</t>
-  </si>
-  <si>
-    <t>1adcf415-b514-4ed5-ab0b-4a5706df10d7</t>
-  </si>
-  <si>
-    <t>Reo Changes Passed By PM</t>
-  </si>
-  <si>
-    <t>2b194a7c-1046-4ad3-af5a-5e70144d6d87</t>
+    <t>4fc04166-f8d5-4f2a-bb47-045cbf113947</t>
   </si>
   <si>
     <t>COGS / Laps As Per SD</t>
   </si>
   <si>
-    <t>5dcaf330-b436-4a1a-a794-710950fb0b0a</t>
+    <t>c0667ad6-3e05-42a8-9374-281afc317d6f</t>
   </si>
   <si>
     <t>Any Splice 40 x Dia Min</t>
   </si>
   <si>
-    <t>78b57408-913e-4838-8887-f9f714bfe8d9</t>
+    <t>74202838-93cd-414c-890c-85c220e409b5</t>
   </si>
   <si>
     <t>Rebar Photos</t>
   </si>
   <si>
-    <t>6abd83fe-cb5a-4016-b8af-151bbb00796c</t>
+    <t>5f54e234-6665-4602-bb93-151a81d6281e</t>
   </si>
   <si>
     <t>Fixings / Cast Ins</t>
   </si>
   <si>
-    <t>2a353ad3-4ca2-4a79-a2ff-22f917e27dc8</t>
+    <t>b0ab1932-b633-4810-88e3-dff9fbd19940</t>
+  </si>
+  <si>
+    <t>ce8a454b-0af1-5572-89cd-fed6424b70b4</t>
+  </si>
+  <si>
+    <t>Strand Size</t>
+  </si>
+  <si>
+    <t>83c74cdb-7d87-599b-935c-8240f788f3e9</t>
+  </si>
+  <si>
+    <t>Coil Id</t>
+  </si>
+  <si>
+    <t>99487dd4-5f97-5570-b057-c611c7f24d10</t>
+  </si>
+  <si>
+    <t>Strand Photo</t>
+  </si>
+  <si>
+    <t>6988efb1-4bc3-4ecc-8b89-8461b8c502ab</t>
   </si>
   <si>
     <t>Ferrule Location Checked</t>
   </si>
   <si>
-    <t>976aa919-133c-4371-af4a-65684fe4851d</t>
+    <t>adf465d7-29a8-4292-9279-ab32b5461589</t>
   </si>
   <si>
     <t>Ferrule Cross Bars Inserted</t>
   </si>
   <si>
-    <t>014bcf87-a1fd-4abd-ab69-4cf240288554</t>
+    <t>f7f1eada-a7ed-4e5f-afbb-fa6b6e72ff4c</t>
   </si>
   <si>
     <t>Lifting Inserts as Per Lift Design</t>
   </si>
   <si>
-    <t>04949cef-6019-4944-9abf-bc21c636b45d</t>
+    <t>0d5c03ed-5b69-48cd-b258-514523e59679</t>
   </si>
   <si>
     <t>Lifter Type correct</t>
   </si>
   <si>
-    <t>98ba53ce-8947-5e57-b8b0-b08b91d643fc</t>
+    <t>aad0581e-3cbd-54d2-871f-24f963ceac49</t>
   </si>
   <si>
     <t>dropdown</t>
@@ -301,122 +274,125 @@
     <t>Leviat Edj Pro Mini 8.5T, Leviat Edj Pro Max 15T, Foot Anchor 1.3T, Foot Anchor 2.5T, Foot Anchor 5T, Foot Anchor 10T, Foot Anchor 20T</t>
   </si>
   <si>
-    <t>0e605e4f-634a-42b2-97b8-af21d479bcf2</t>
-  </si>
-  <si>
-    <t>Lifting V Bars Inserted</t>
-  </si>
-  <si>
-    <t>c4ec3f31-2fc9-42de-882d-31d8f5f7c1a6</t>
-  </si>
-  <si>
-    <t>Cast Plates Per Design</t>
-  </si>
-  <si>
-    <t>140de006-93d1-4cc6-8d8a-175509f130b2</t>
-  </si>
-  <si>
-    <t>Cast Plate Location Checked</t>
-  </si>
-  <si>
-    <t>e4b203fb-fcb1-4e06-93dc-1fbccdd4ec34</t>
-  </si>
-  <si>
-    <t>Additional Cast Plate Bars Inserted</t>
-  </si>
-  <si>
-    <t>1ef55d89-2b7e-4009-81c3-5e8f3153538a</t>
+    <t>6fcd6a4a-3ec1-4347-a039-517db51a5f70</t>
   </si>
   <si>
     <t>Starter Bars Correct Per SD</t>
   </si>
   <si>
-    <t>e446f9b8-7a10-4207-93df-b1e230f0ec45</t>
+    <t>17f0f6c1-c3c3-4772-bae3-bffa348cf5c2</t>
   </si>
   <si>
     <t>Pertruding Bars Orientation</t>
   </si>
   <si>
-    <t>a417c0c9-137f-42cb-a33e-36be0df4875b</t>
+    <t>f9ac8fc8-698c-455c-8053-679835c62e1b</t>
   </si>
   <si>
     <t>Grout Tube Size Checked</t>
   </si>
   <si>
-    <t>77f6b57d-9e42-4987-acff-cc1cfadef084</t>
-  </si>
-  <si>
-    <t>Grout Tube Exit Orientation Checked</t>
-  </si>
-  <si>
-    <t>84a235aa-1b45-4714-9676-71e05dbd6e80</t>
+    <t>3f0a76b2-c13c-4f7c-aaf4-174d1d09b759</t>
   </si>
   <si>
     <t>Grout Tube Photo</t>
   </si>
   <si>
-    <t>3814317c-2f36-41f8-90ff-3e82d38d9f19</t>
+    <t>3a2d9fe1-1e9f-4802-91ad-72b00054d3e8</t>
   </si>
   <si>
     <t>Lifting Insert Photo</t>
   </si>
   <si>
-    <t>c1b2e65e-761e-4cbd-8e49-2327b604394e</t>
-  </si>
-  <si>
-    <t>Cast In Plate Photo</t>
-  </si>
-  <si>
-    <t>7f6e72fd-61e0-4019-aef5-f1811355e1b7</t>
+    <t>f15e079d-23cf-42f4-b657-29257ecdee38</t>
   </si>
   <si>
     <t>Penetration Photo</t>
   </si>
   <si>
-    <t>21422afa-f6af-4343-83e4-64da9761b74d</t>
+    <t>49682576-074a-4bff-acdd-774fec400acc</t>
   </si>
   <si>
     <t>Final Checks</t>
   </si>
   <si>
-    <t>6c8bbf16-a6ff-4bd9-8ed4-933a91d76417</t>
+    <t>430639d0-17cb-4254-a56a-53752225f1d1</t>
   </si>
   <si>
     <t>All SD Dimensions Shown</t>
   </si>
   <si>
-    <t>9bfb6b82-4553-425d-8c5d-f7b11ccef887</t>
+    <t>3ad6f01c-832d-4060-b1f3-7c13e1cee1c2</t>
   </si>
   <si>
     <t>Photo of For "Construction" Shop Drawing</t>
   </si>
   <si>
-    <t>f6a6f3c3-e8de-4f22-bb4b-82a888ed9b8d</t>
+    <t>feeb23db-3e1a-4c67-9a3a-03e7d5b7e0c6</t>
   </si>
   <si>
     <t>Panel ID Tag Placed</t>
   </si>
   <si>
-    <t>788889ae-a4ca-46d9-a1b6-b83c0a5d78c8</t>
+    <t>7e09dfc1-e350-4b96-beaa-ae5a40fcac08</t>
   </si>
   <si>
     <t>Product Cleared For Pouring</t>
   </si>
   <si>
-    <t>c23f8dac-cfd1-4d5b-b829-38f3c8573c22</t>
+    <t>ebdcbe3b-aaab-4f0e-8d91-e7e46868c5dc</t>
   </si>
   <si>
     <t>Inspector sign off attached below</t>
   </si>
   <si>
-    <t>Pre-Pour Checklist</t>
+    <t>Pre-Pour Checklist (Pre-Stressing)</t>
+  </si>
+  <si>
+    <t>String-line the forms on the top edge</t>
+  </si>
+  <si>
+    <t>Place Timber braces on the sides</t>
+  </si>
+  <si>
+    <t>Stressing Guage Photo (Mpa)</t>
+  </si>
+  <si>
+    <t>Measurement from the wedge to Marking line</t>
+  </si>
+  <si>
+    <t>Check the dimensions are correct after pour</t>
+  </si>
+  <si>
+    <t>No change in the penetration size and location</t>
+  </si>
+  <si>
+    <t>Ferrules, lifter points, penetrations/blockouts are cleaned out</t>
+  </si>
+  <si>
+    <t>Any defects identified (Bugholes, Honeycombing, etc.,)</t>
+  </si>
+  <si>
+    <t>Propsed repair methodology</t>
+  </si>
+  <si>
+    <t>Product Cleared For Delivery</t>
+  </si>
+  <si>
+    <t>Post Pour Checklist (Pre-Stressing)</t>
+  </si>
+  <si>
+    <t>Post Pour Checklist</t>
+  </si>
+  <si>
+    <t>Methodology:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,8 +531,23 @@
       <sz val="6"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,12 +729,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4CC82"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5D5E3"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -907,13 +912,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1289,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1297,12 +1306,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="159" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,669 +1339,668 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="C41" t="s">
         <v>81</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
-        <v>128</v>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G53" xr:uid="{2FC82424-48FB-42A9-BBD7-D5F7213BFFEF}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>